--- a/medicine/Pharmacie/Liste_de_médicaments_retirés_du_marché_français/Liste_de_médicaments_retirés_du_marché_français.xlsx
+++ b/medicine/Pharmacie/Liste_de_médicaments_retirés_du_marché_français/Liste_de_médicaments_retirés_du_marché_français.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_m%C3%A9dicaments_retir%C3%A9s_du_march%C3%A9_fran%C3%A7ais</t>
+          <t>Liste_de_médicaments_retirés_du_marché_français</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Certains médicaments ont été retirés du marché français à cause de risques avérés pour la sécurité sanitaire, ou par principe de précaution.
 Il s'agit parfois d'effets indésirables qui n'avaient pas été détectés lors des essais cliniques de phase I à III, et ne sont apparus qu'à l'occasion de données issues de la pharmacovigilance ou d'études cliniques de phase IV (Post-commercialisation).
-L'ANSM tient à jour la liste de retraits de lots de produits[1].
+L'ANSM tient à jour la liste de retraits de lots de produits.
 La liste ci-dessous est très incomplète.
 </t>
         </is>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_m%C3%A9dicaments_retir%C3%A9s_du_march%C3%A9_fran%C3%A7ais</t>
+          <t>Liste_de_médicaments_retirés_du_marché_français</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Effets indésirables graves du VIOXX et du Celebrex</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le VIOXX et son concurrent le CELEBREX appartenaient à une nouvelle famille d’anti-inflammatoires, les coxibs. En 1997, soit trois ans avant leur commercialisation, le Dr John Schmedje (université du Texas, Galveston) a pressenti que le mécanisme d’action de ces nouveaux anti-inflammatoires portait en lui le risque d’accidents cardiovasculaires.
 Le 23 novembre 1999, le VIOXX (rofécoxib) de Merck, reçoit une AMM européenne, qui fait suite à l’autorisation de mise sur le marché américaine qu’a délivré la FDA le 21 mai. Il est commercialisé en France en mai 2000 à la dose maximum de 25mg/j, avec pour indication le « soulagement des symptômes dans le traitement de l’arthrose chez l’adulte ». Son concurrent, le CELEBREX (celecoxib) de Pfizer, reçoit son AMM le même mois et entre en officine en novembre 2000.
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_m%C3%A9dicaments_retir%C3%A9s_du_march%C3%A9_fran%C3%A7ais</t>
+          <t>Liste_de_médicaments_retirés_du_marché_français</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,9 +566,11 @@
           <t>Retrait d'antibiotiques en 2005</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs médicaments antibiotiques ont été retirés du marché en France en 2005 par l'Agence nationale de sécurité du médicament et des produits de santé (AFSSAPS), pour non efficacité[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs médicaments antibiotiques ont été retirés du marché en France en 2005 par l'Agence nationale de sécurité du médicament et des produits de santé (AFSSAPS), pour non efficacité.
 Les 12 retirés sont : Locabiotal 1 %, Lysopaïne en comprimé, Oropivalone bacitracine en comprimé, Pharmacilline 0,25 pour mille en flacon pulvérisateur, Argicilline 0,05 pour mille en solution nasale, Pharmacilline 0,05 pour mille en solution nasale, Solutricine maux de gorge en comprimé (et les formules sans sucre et tétracaïne), Ergix mal de gorge en comprimé, Veybirol tyrothricine en solution pour bain de bouche et Tyrotricil en comprimé enrobé.
 </t>
         </is>
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_de_m%C3%A9dicaments_retir%C3%A9s_du_march%C3%A9_fran%C3%A7ais</t>
+          <t>Liste_de_médicaments_retirés_du_marché_français</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Liste de retraits liés à des effets indésirables graves</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L’argument date (valeur juillet 2023) n’existe pas dans le modèle appelé
 </t>
